--- a/data/trans_dic/P64D$noloshace_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P64D$noloshace_2023-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008555726425994588</v>
+        <v>0.007150803215371273</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0270761998649841</v>
+        <v>0.0284655630779392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0174741557275707</v>
+        <v>0.02057376832498191</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07482150039318371</v>
+        <v>0.06316772483352637</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1036031366106206</v>
+        <v>0.1067321524096225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0666254611256852</v>
+        <v>0.06854406689545776</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01728705138230821</v>
+        <v>0.01750307463826633</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02485484175468816</v>
+        <v>0.02512324598910451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02276746314999552</v>
+        <v>0.02220076444591012</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03892357940326438</v>
+        <v>0.03803284733568384</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04627883408281996</v>
+        <v>0.04627139301592294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03799493767600996</v>
+        <v>0.03770589155509834</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.1004654931765549</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05409654823251972</v>
+        <v>0.05409654823251973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.07739320404480897</v>
+        <v>0.07739320404480896</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07194152943105851</v>
+        <v>0.0703423633198795</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03641279677273218</v>
+        <v>0.03864633421671537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0591865235145247</v>
+        <v>0.06112791077409328</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1379074066931984</v>
+        <v>0.1358738410052985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07290017592474571</v>
+        <v>0.07751761325442676</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09604264678403847</v>
+        <v>0.1000426170784114</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.0418483400781748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.04331708102228266</v>
+        <v>0.04331708102228267</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03316115601870232</v>
+        <v>0.03452944988112733</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03293089501465512</v>
+        <v>0.03308615988713518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03641318687791124</v>
+        <v>0.03599948955969463</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0562493035629166</v>
+        <v>0.05595867145080142</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05225690607417635</v>
+        <v>0.05230488936003385</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05142068161527544</v>
+        <v>0.05112793265250619</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1379</v>
+        <v>1152</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2276</v>
+        <v>2392</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4284</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12056</v>
+        <v>10179</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8707</v>
+        <v>8970</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16335</v>
+        <v>16806</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21808</v>
+        <v>22081</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23195</v>
+        <v>23446</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>49969</v>
+        <v>48725</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49104</v>
+        <v>47980</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43188</v>
+        <v>43182</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>83390</v>
+        <v>82755</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34414</v>
+        <v>33649</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17251</v>
+        <v>18309</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>56353</v>
+        <v>58201</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65970</v>
+        <v>64997</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34537</v>
+        <v>36724</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>91444</v>
+        <v>95252</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>63041</v>
+        <v>65642</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>49101</v>
+        <v>49332</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>123516</v>
+        <v>122113</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>106932</v>
+        <v>106380</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>77916</v>
+        <v>77988</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>174422</v>
+        <v>173429</v>
       </c>
     </row>
     <row r="20">
